--- a/natmiOut/OldD0/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,60 +522,60 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.61092678597211</v>
+        <v>4.062756666666667</v>
       </c>
       <c r="H2">
-        <v>1.61092678597211</v>
+        <v>12.18827</v>
       </c>
       <c r="I2">
-        <v>0.4747555266995243</v>
+        <v>0.6829811567947219</v>
       </c>
       <c r="J2">
-        <v>0.4747555266995243</v>
+        <v>0.6829811567947218</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.164965513956626</v>
+        <v>83.95844533333333</v>
       </c>
       <c r="N2">
-        <v>0.164965513956626</v>
+        <v>251.875336</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9979754487867319</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9979754487867319</v>
       </c>
       <c r="Q2">
-        <v>0.2657473651943848</v>
+        <v>341.1027335009689</v>
       </c>
       <c r="R2">
-        <v>0.2657473651943848</v>
+        <v>3069.92460150872</v>
       </c>
       <c r="S2">
-        <v>0.4747555266995243</v>
+        <v>0.6815984264650939</v>
       </c>
       <c r="T2">
-        <v>0.4747555266995243</v>
+        <v>0.6815984264650938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -587,52 +587,176 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.78224442610664</v>
+        <v>4.062756666666667</v>
       </c>
       <c r="H3">
-        <v>1.78224442610664</v>
+        <v>12.18827</v>
       </c>
       <c r="I3">
-        <v>0.5252444733004757</v>
+        <v>0.6829811567947219</v>
       </c>
       <c r="J3">
-        <v>0.5252444733004757</v>
+        <v>0.6829811567947218</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.164965513956626</v>
+        <v>0.170323</v>
       </c>
       <c r="N3">
-        <v>0.164965513956626</v>
+        <v>0.510969</v>
       </c>
       <c r="O3">
+        <v>0.002024551213268089</v>
+      </c>
+      <c r="P3">
+        <v>0.00202455121326809</v>
+      </c>
+      <c r="Q3">
+        <v>0.6919809037366668</v>
+      </c>
+      <c r="R3">
+        <v>6.227828133630001</v>
+      </c>
+      <c r="S3">
+        <v>0.001382730329627997</v>
+      </c>
+      <c r="T3">
+        <v>0.001382730329627997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="P3">
+      <c r="G4">
+        <v>1.885806666666667</v>
+      </c>
+      <c r="H4">
+        <v>5.65742</v>
+      </c>
+      <c r="I4">
+        <v>0.3170188432052781</v>
+      </c>
+      <c r="J4">
+        <v>0.3170188432052781</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>83.95844533333333</v>
+      </c>
+      <c r="N4">
+        <v>251.875336</v>
+      </c>
+      <c r="O4">
+        <v>0.9979754487867319</v>
+      </c>
+      <c r="P4">
+        <v>0.9979754487867319</v>
+      </c>
+      <c r="Q4">
+        <v>158.3293959325689</v>
+      </c>
+      <c r="R4">
+        <v>1424.96456339312</v>
+      </c>
+      <c r="S4">
+        <v>0.3163770223216381</v>
+      </c>
+      <c r="T4">
+        <v>0.3163770223216381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="Q3">
-        <v>0.2940088677490138</v>
-      </c>
-      <c r="R3">
-        <v>0.2940088677490138</v>
-      </c>
-      <c r="S3">
-        <v>0.5252444733004757</v>
-      </c>
-      <c r="T3">
-        <v>0.5252444733004757</v>
+      <c r="G5">
+        <v>1.885806666666667</v>
+      </c>
+      <c r="H5">
+        <v>5.65742</v>
+      </c>
+      <c r="I5">
+        <v>0.3170188432052781</v>
+      </c>
+      <c r="J5">
+        <v>0.3170188432052781</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.170323</v>
+      </c>
+      <c r="N5">
+        <v>0.510969</v>
+      </c>
+      <c r="O5">
+        <v>0.002024551213268089</v>
+      </c>
+      <c r="P5">
+        <v>0.00202455121326809</v>
+      </c>
+      <c r="Q5">
+        <v>0.3211962488866666</v>
+      </c>
+      <c r="R5">
+        <v>2.89076623998</v>
+      </c>
+      <c r="S5">
+        <v>0.000641820883640092</v>
+      </c>
+      <c r="T5">
+        <v>0.0006418208836400921</v>
       </c>
     </row>
   </sheetData>
